--- a/FormAutomation/src/testData/TestData.xlsx
+++ b/FormAutomation/src/testData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">Commented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b@a.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO Comments</t>
   </si>
 </sst>
 </file>
@@ -154,13 +166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
   </cols>
@@ -199,9 +211,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>85485</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="a@a.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="b@a.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
